--- a/biology/Botanique/Rosier_aciculaire/Rosier_aciculaire.xlsx
+++ b/biology/Botanique/Rosier_aciculaire/Rosier_aciculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa acicularis, le rosier arctique ou rose aciculaire, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier sauvage, classé dans la section des Cinnamomeae, à distribution holarctique dans les régions nordiques d'Asie[1], d'Europe[2] et d'Amérique du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa acicularis, le rosier arctique ou rose aciculaire, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier sauvage, classé dans la section des Cinnamomeae, à distribution holarctique dans les régions nordiques d'Asie, d'Europe et d'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rosa acicularis a été nommé par le botaniste anglais John Lindley en 1820.
 Synonymes :
@@ -548,12 +562,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa acicularis est une espèce très ancienne qui dérive de Rosa beggeriana comme Rosa canina[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa acicularis est une espèce très ancienne qui dérive de Rosa beggeriana comme Rosa canina.
 L'espèce fille de Rosa acicularis est Rosa alpina, elle-même très ancienne.
 Rosa beggeriana existe toujours et cohabite avec Rosa acicularis en République populaire de Chine.
-C'est la fleur officielle de la province canadienne de l'Alberta[4],[5]. On la trouve communément dans toute la province ainsi que dans tout le Canada occidental en général.
+C'est la fleur officielle de la province canadienne de l'Alberta,. On la trouve communément dans toute la province ainsi que dans tout le Canada occidental en général.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau à feuilles caduques pouvant atteindre de 1 à 3 mètres de haut. Les feuilles, longues de 7 à 14 cm et de 3,5 à 5 cm de large, sont imparipennées et ont de trois à sept folioles.
 Les fleurs simples, de couleur rose foncé (rarement blanches), sont solitaires ou groupées par 2 ou 3, parfumées.
@@ -590,8 +608,8 @@
 Cette espèce à aire de diffusion très vaste présente une grande variété morphologique et deux sous-espèces :
 Rosa acicularis subsp. acicularis,
 Rosa acicularis subsp. sayi (Schwein.) W.H.Lewis,
-ainsi que de nombreuses formes et variétés, ont été décrites. Une trentaine sont recensées sur le site Catalogue of Life[6].
-La variété Rosa acicularis var. nipponensis (Crép.) Koehne[7], originaire du Japon (Honshu, Shikoku), a des fleurs rose foncé, presque rouges[8].
+ainsi que de nombreuses formes et variétés, ont été décrites. Une trentaine sont recensées sur le site Catalogue of Life.
+La variété Rosa acicularis var. nipponensis (Crép.) Koehne, originaire du Japon (Honshu, Shikoku), a des fleurs rose foncé, presque rouges.
 </t>
         </is>
       </c>
